--- a/Study 3/Shocks/GCAM/NDC_EI - 2055.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2055.xlsx
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1142824546618074</v>
+        <v>0.1142824546618075</v>
       </c>
     </row>
     <row r="6">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2389773816256614</v>
+        <v>0.2389773816256615</v>
       </c>
     </row>
     <row r="14">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02824871881277766</v>
+        <v>0.02824871881277767</v>
       </c>
     </row>
     <row r="18">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03909763804835799</v>
+        <v>0.039097638048358</v>
       </c>
     </row>
     <row r="22">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.2144170890951687</v>
+        <v>0.2144170890951688</v>
       </c>
     </row>
     <row r="38">
